--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/25_Denizli_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/25_Denizli_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C160BE55-1A97-42C0-B0CD-EE58014D3B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB20EFA0-53FC-437D-9308-46E9597A06C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="643" xr2:uid="{7BF3532C-491E-4479-AC79-D9B5F381244A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{61043044-8614-4D3A-962F-0DD27A9555AD}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{04F9D890-F194-4F97-836E-41958EB8E753}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{848769E8-1989-4A48-824C-B83529A59DDB}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{450EFB44-8D6E-416F-9F4F-4BF280E4A5EE}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{3708547C-B284-4F77-B040-E35B13D3892D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{08DBB307-EDE1-42FA-BD03-B978A061B7D7}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{21BC8A0C-EF38-4FE9-852C-07E059C1DD83}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{FCA12E02-1A97-4C7E-9DEA-73979CDCA193}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{EF665772-2781-49C1-AA1F-C756427132A6}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{03484265-43A6-4E23-855C-325D67D14FA0}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{F0187149-3D90-41F4-9C69-0D931E57E459}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{3393D953-AFBB-4179-8D16-30A5AB28BDF7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B689859E-A5E2-4F52-AC5A-A17EC2303592}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{6ADDA4A0-CE1F-4EC0-B325-E8E45C1CF5DF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{9C84FA25-F336-450C-8EB9-9B8BE10679BE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E665CD-4258-4F85-BA8D-709A2D3A007D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289CD909-AD66-4741-B065-775845EFF880}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2654,17 +2654,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F2CA3AF-9F6D-4BE8-A416-96F22B1AF717}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A37B938-4359-4BCC-9695-821D01BA95F1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{54BB817D-B69C-4966-B76C-F4800D48DB37}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2599D636-CA12-4C5A-97BE-57111D2F714B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{376706AA-7DEC-4ACE-80F0-EE66A6B88B46}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{895FD42B-B8FC-4685-B210-AD8666F827C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43C986F2-E3C4-4904-8A5F-74461C6A8723}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1106E1D-830F-42A3-BA34-C5FF417E7E85}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E0DBD018-7A4F-4353-979B-D9CD73A41642}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1C2D2313-8FCB-4F85-96B6-40E145592EE4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D366FCCF-0F5F-4A70-96BC-89A477F2E278}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4590C054-3245-48A8-8AA7-6491FB3E37D7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BF9E2CEA-8B48-4894-901C-9C9E21F18BA5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{293DD7AF-CAC9-4239-9861-7C9FFF42E206}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C499C114-2CF4-4554-8A71-6E27988365D0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{95C899C6-BCF3-435B-A6AE-67FAD82A2FDA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E88DBA8-5D1D-4A7E-BBEA-ED71ED594E93}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80ED4080-9877-4FE1-AB33-ADB823BF15CC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF1413DA-5CEF-4607-B833-C5A2B66E69E8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F136163D-50DC-434F-8E56-495AC7C0DF14}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7A9EDD6B-703C-4881-A02A-808690C419DF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{854D7FF1-1AD1-46DB-90AD-538C22E99963}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2677,7 +2677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51E283D-C86C-48EF-BB6A-C312B1AB10E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD381144-04EC-4D63-A345-B5AE8CAA1611}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3969,17 +3969,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2D20D88-DF68-4F0D-AA5D-85D2848E85BA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D32AA48A-7779-4B39-88E3-C37B2C6BEF40}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA0350C4-4A11-45C1-B36C-6346E1F1F43C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8568B0F8-D588-427B-9648-93ADFBE03FED}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{629B3B1E-2911-4F25-AE91-D591A03A12E5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0CEE11E5-3568-4473-9AAC-F8698E5BCF3C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CC942C93-87E1-4587-AF79-4352FFB877C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94A66C1E-C723-4FF8-95BB-965B8C7C9522}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FC4B98B6-DB14-4DAA-B0A8-56FF1B0044D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E49DAE79-F87D-446A-9C68-1DB613DD4683}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01A929A2-7105-420A-AAC2-6E90F852696D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB1B3B36-7B5A-4D06-B0CF-DD871546099A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7BAADAFE-C576-4690-8A41-7D92506E8504}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{064657CE-E1E2-4414-83C7-8DBA3CC901B4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{298BA86B-A4EB-4C56-A5F3-7A391743D87A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9ECD3011-2CD7-4CFA-821F-B9974547E1EE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{79D1CD55-1948-48F0-AC2F-A2FFECEFE284}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{124D0B57-5B1A-44AA-9490-6439D7C94295}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6D9D281-DBE7-4BAF-BFB0-45A1A7C633A0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C5BC4BC5-CB3A-4485-999D-06F3A0FD4129}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{50807E82-430A-47C9-938B-6917462C0ECE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A384947C-5636-4F70-8290-03E939F8E9B4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3992,7 +3992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD1650E-7CDA-4923-B970-006ED3D381BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3C2983-D82B-42DB-8E66-6D5083F3E56A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5284,17 +5284,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BE0BFA2-5DD6-427A-B01C-B0262C6DD199}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9EE77ECF-CCFE-4DE9-B8DA-2BA26B5A30C9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B62F2416-11F8-4202-9F64-41878DE6789F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{24122D8A-6CA0-4C76-A19F-4C02B7D8C47A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B705816-C121-47CD-8DD1-4283B3E23F44}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0978E77B-418C-44C5-A958-F941C78B24E9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69127EFF-59CA-4D44-91D3-CBBB6292ADCD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0006057-A4AE-4721-BCB3-CA269A38E267}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B672ED7F-3114-4409-908B-CB472B5B5987}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DC451E60-6242-40DC-A04B-601514FEBD17}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FCE4F594-E1A2-456B-891B-F8A72B5ABA7F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C90D5CE-54E3-469A-BD36-2A6E11B94B47}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5E09FCB-4A3B-4150-BDBD-8008E0FF5C0E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B39750BA-92D7-42A7-86FE-81FD8CBD2794}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{24C93CDC-34A3-4BFC-BE6F-C0A552367E07}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0C64064D-41B2-41F5-8476-1298C7E8EC98}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA9DDDE7-6310-4802-9A81-304C4B5D16FC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E495434F-9FE4-435A-8764-79E31FD4AC48}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E85C65BA-71E2-47E8-A200-D5210FE3495A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9A518BD8-44F0-42F2-9625-D405780A6297}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{69178583-1C60-42F8-89F2-5334322B0E46}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{360B8A93-7E4D-4FA0-BA72-68E97A0E4ED2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5307,7 +5307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118D0513-9518-4E1B-B453-474178DF6F9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB44DD94-000F-4111-94AC-1CAEB0F2CA55}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6597,17 +6597,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F9C568D2-1866-4B41-9DDB-6916460FB8CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14C6054E-42EC-45A7-BB1A-6AB061025D67}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8F1EAAFD-243B-4423-9A8C-8692C9672DE3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E5562E29-D553-48CC-9F1C-EC8588446AE0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B52A747E-0271-4F89-AE7B-7E689EE3DBA2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1356EA1C-222C-42F6-A7B2-4628CCF6D150}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{74FCA4C1-3577-434B-BB12-B353DA6C5D22}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82825BAD-DD93-4ABB-A306-87DD7EC09D23}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5BED36BD-8AB0-4A60-946C-B8142B00DBC9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7448091C-66CB-4CD5-ACEE-479A5B5CD856}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC42DF67-059F-46B2-B77F-7357E2FE970B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39E79A71-48C1-4824-A0D6-6A38F5FBAF00}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE6A8300-95AD-45E5-B204-95AABBBAF0ED}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A20901A6-E1FE-42DE-B1AA-E25719AB9297}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6B8B7683-7CEE-4CA8-8CDF-346C239D3F11}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{057306BD-B93F-4E93-84E0-AA9FC1FE624F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68EE3BF0-DA00-4CF3-9FF1-2A8B2823AECF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{852868D7-84AD-487B-B16F-66817238E5AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0E1A2D6-D754-4F15-B07E-8D9B86436990}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FE709923-762D-434A-AA7D-D2DE9B8DC0E7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{543FD4CA-1783-4CD7-B6D7-3A03247B8BAC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0500403D-9705-4098-8A35-4964F0BB564C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6620,7 +6620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FCDD93-D390-49EB-AF98-750EEFA3DBC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC074E46-35C0-43A2-BC96-A80F1BD1BC10}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7919,17 +7919,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA63006E-485E-4274-B67A-222F824BB277}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4AB7026-C225-4BB0-B96C-C21418075EEE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{96D13F54-2528-4CEC-893E-4BE227239F7C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3104588-E282-4F22-8992-F93E528AFF2E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C33B57C9-26DA-4B1B-9D5F-11B2A4766929}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{67AC5350-819A-4763-9CB4-2DF36C83F229}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{850E47B0-0E8E-4950-A17D-D637A1284531}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0833B187-C5B9-4565-BB6C-62DDD93424F4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CCFEAF9B-5EA4-4E6F-A608-44655DCE7220}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6B4102A9-4622-4A1B-9E68-EC4E5F900B0C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6811440B-6E3B-4295-BFBD-65A2B05D6DC5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D78097C0-91F5-48C1-9744-A9C152C821D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{11D27CFB-FC8A-4ACB-9026-4AA2C15A3E9D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{776FEAD8-A565-4102-9A70-F89EDC114D56}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D23141AB-A945-4CD2-96F4-4ED155B0B6DE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{06C665F3-5509-4659-B627-C3A4EB5AACEE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6AF0BB4-4BC2-42B5-8D10-E760094CA34F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9AC37AE-4620-496D-BBF5-6FBB5F636BD7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{25D394B0-2533-470D-A4B1-24E0BB75EC3F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{98306710-8485-4741-8341-1AC63411F974}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D1427855-CC82-4D3A-BDF6-538169E5570B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02E09BCA-FC40-490E-90C8-758C4BB39061}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7942,7 +7942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D207537-024D-4C54-8FE8-E7E015B1E59C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100A4F94-6FD6-4A14-A475-62278F5062AC}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9237,17 +9237,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8D7F3F1-D04B-4F5D-9D58-92A56651A74A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3475F234-86A9-4C02-86BA-CCEF0A238577}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0ACD5994-FCEC-4136-B648-D5DFA51033AB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{65B7CC54-121D-4D30-AAE7-AD076B31047D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D876EF94-063C-478B-B292-CEBB5E7EB65B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99F0371A-6209-4412-AA15-20167FCF4EA0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2918C6B-75F0-4518-AD6F-B2F8A9090147}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D4204B5B-8CE8-4FCA-891C-95D25FC3FE98}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6695BFF2-FCCA-40BE-A5B9-9EAC49CA47F9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D906475A-9343-4A2B-9B75-45A326597349}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D45E0C4B-FFDD-4F9E-B848-3F211B8A8329}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56772FD8-E7EF-4516-AEF4-31898E142364}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42B256BC-98C9-4BAE-93C6-A29578BF63C3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4D016464-09F1-4A6A-BF1F-BD2D506E4ECF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{39F7F3B3-9D02-460D-8AE3-3A3A09C7F1CF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D2FF3FAC-6A1A-422C-BB78-A4F25092B7B5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AC61C6B7-92EC-4910-A922-2F806DAF4071}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AC1BD6D9-2579-49BD-B35C-87AF401FF591}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC52D58E-2B45-4AC8-AE6F-8B7D13DFFCA5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{22E64FB1-2FD1-4003-AD39-522EADD6CC12}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{76475342-3268-49E3-8C9E-D2E778DC1A04}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89460012-B701-4BD9-8B7D-93BAA41948ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9260,7 +9260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023AFE8A-0B14-4928-B854-656BC35943D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35FDCDC-6752-4F25-8180-863A59945D2A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10555,17 +10555,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{130D321B-82C5-4350-8E50-461E6B6F0E8A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C391BCE3-9D57-47EB-8FE1-F694734D075B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{552AD4E1-A221-4DCF-98E1-B1E08CF11B8C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C87AB437-5541-4D86-9177-D63690B97C7E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{52A80A01-93E2-400E-AD48-264DF0CD9A6B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4A0175B0-B742-4697-9128-DCFC93D198EA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59284764-0540-453D-B726-46394961B104}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97BE5441-2C85-4E43-B0C4-F062B589DB80}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{487006E5-625D-4E21-9458-1332D0FD6638}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8FEA15FE-D6AD-4DF4-82E6-ACE504C60684}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA1F18CE-8C25-4F08-90A8-366FDD558CEB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{132EC7E3-025B-4C40-8937-25EEA554C838}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1CFA6158-DE3E-4A1A-86EB-CFB1DC2D16E3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{30CDCFB3-58B2-48E2-933A-4DEBC3A68BC4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{80E2B3BA-6614-44D2-8D6E-4815B06B0D19}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F62C50D7-9CB2-41B2-9D1C-CA46903E8291}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C7ED5592-242D-4426-92D2-AB5AD52CF8D8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CFDDEE22-C82B-4C92-ADBC-EA9FB9EA07F4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07B3FE39-F295-4934-9975-D7AD0A1703A3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D521F5A9-30A3-4C25-91AF-24340E6BE776}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E5524ED6-B3B9-414A-950E-7FB96E529EFC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{703ABB5A-86DE-4767-B6BC-30E9A35A407E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10578,7 +10578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761657F8-EE04-4C67-A105-19C16EF7F6C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169F18AA-1A68-4B30-93F8-70AC435ACB7C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11873,17 +11873,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{744FD724-5690-4DE6-86C1-29BC34450C4D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3CF7311-FE6E-4C24-A3A0-6648D201F180}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C40C5A25-3261-4EC8-9FAE-AE496C26884E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C1F52092-C7D3-421D-9FBF-8F47A9FCA939}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1585DB68-F1C7-4CFF-935C-0283C411F287}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EEAC6E66-F469-44FB-9C96-3FC4F0FA5378}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4FB6096-25D8-49AF-AF73-7C6465A9AFE5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AC749A70-EF6F-4AC8-87FF-A2C814688085}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C6C0872A-CC00-4624-9DD1-ECFCD2A6BDA7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0F1991C1-15E7-4AFD-A867-4660E1314B25}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E6FCD0A-F8B0-49B5-87D4-24DD7D72323C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE48909A-E081-4A03-9BA7-707693386963}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E832198-2B5E-4828-8811-BE40ADF8695F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E8C3990E-AB86-4BDC-BF5D-C235ADFA1A5D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0139EE1E-E318-4F16-8ED7-66470D447DF5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{060BB647-2CD9-4299-BD4C-F28602052038}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6776ED07-C85F-4D97-8A73-B9EF9373AAC9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10BD584B-4A56-429E-94AC-0A022B3DA476}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E9FFB0C-1D82-45E6-B356-3F9D99036CE9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C16CCE8B-0292-4D67-AA88-FA5E9F13E169}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F82C2BD7-D428-45A8-AF3B-98C4C2F13605}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02B96823-933C-4091-BAEC-34D105F99154}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11896,7 +11896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52334A14-85CA-453E-9E65-1DD763744F23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B39F2B2-C34C-47DE-9663-E903DD1A1C44}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13191,17 +13191,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B774475-E46E-465D-971E-CC389AD451BE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B758F4A2-20D0-4DE2-8DAC-A6818DFE3FDB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F9683C1A-4F90-483D-89FD-3C1CADB94561}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7EE4F78E-1084-478E-82EA-E11286733269}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1BD16A6-7C28-44BC-B376-26191139EDAB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4656733D-A6D7-4423-8734-110C1D012E35}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8A2E9E0-2BD5-4E42-8EBC-F15A6C7B8B7B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A2D73421-4DFD-4015-BBF0-2C5C3BE02ACB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AA1984DA-556A-425B-9E8D-346AA61B6C6C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{88FF9705-2E30-49BB-B186-3675B626037C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{32ED699C-E834-44AB-87B9-8D3EBDF1CA08}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{24C6F1A7-6E47-43DA-9E03-DD9B6E94F9E9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F28A8CC-DF41-49AC-8AD0-E3BB7E09F4C0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CE32360C-6112-4B8B-9735-5EDA5F492ED4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{141521FE-BA30-4DF3-A1F4-17FE59A5D4C0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA978768-982E-4AB2-9000-E3084E920DDD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF88BC3C-8498-4A12-9CB4-2CB79BB26F0D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48EF63AC-7BB6-401D-A104-A590CE63F761}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12830B7F-E142-4A9B-8D33-AF3FF07794CE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4F140875-20EB-4E80-8384-06CCA1909CA6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6D2189EA-CCDA-4CA7-AD6C-7951D929686B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD7951AC-F023-4AC1-AC76-87AB89C538AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13214,7 +13214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A777E26-40B5-4D8A-88FB-085120D20208}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C856E5-CD6B-4B71-BBB2-1E101B29E88B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14509,17 +14509,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E202CE3-C95B-4924-ACF4-9D16B35D6330}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE15A595-D654-4099-9FFA-CCB3DA97671E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7606AE50-907D-420D-A8A6-BD5AFE1367DA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FDE7357A-C07F-4B03-8B17-88D286CE7230}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E57797B5-0FBA-46D9-B235-4F370D71FC8B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A259DDE2-5982-438A-90C4-B89E9DA0A024}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32F290E3-738D-4517-B842-DCD0B85730D9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C4159E3-D9EF-46C7-87F2-2D1CB9D5AA85}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A98A7172-43D5-44CD-A161-0AE7333F8694}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E776D59C-253A-4F25-84BE-55FDFF188378}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1A7C8ED-41DB-4653-BD44-1EE3D0787F0C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7823E9C7-EF99-4531-972E-D46DEE973C69}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B67B7592-91BB-4224-8822-BB2FBAB21052}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{68D07E63-C9EA-4BFB-B938-BE3458DAC689}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B38FA176-27E9-4ED0-B86A-3F9EE5A4E77C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DAD2DCB5-CBBD-4733-81A4-9D6B208566B3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D4F6883-2027-4F13-A8BA-98FA42CA3FF3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18BF9332-1D33-4ECB-A8FA-94D972BE810D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{476D9A8A-0ECC-4C45-A9BF-5FA990F1B0FA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ADC7F7A7-4736-482B-BC1E-2AF4AADCB1E4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{86C11F0C-5463-4DD8-A1F5-63CE406E18B0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CBF3F0DE-CE00-436C-AD1E-B9601DA4CF9A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14532,7 +14532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCE00CA-A6F6-4C0C-AE5F-5CC2D9612552}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6004933-7918-4EB1-BDB6-9A830282AB15}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15828,17 +15828,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47B1F83C-07C4-4BA7-BF2E-A03D8D16A96A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE339D64-97F7-4A21-B5B8-5ED5460F3377}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{307699CA-6F1A-4F07-B44B-8399FBC99BBC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8B17AD5-7E74-47E7-9B56-4AD444815A3A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C12A0252-1AD3-4135-B89E-ACA7BA3BDC57}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{47D01BDC-15DB-4CB2-A829-59DDC55C20E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C53C2635-672A-4793-B1BB-91FD43030B12}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57D0C9E6-78D2-4E1D-9BD1-A468493D2E4E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{21459DA0-2907-4AC4-ABC6-88340F84E213}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{27C15B1D-6252-4FB2-8B56-EDF213899062}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F675F3B6-0E90-4E89-BE28-C6994ADF1062}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A99897E4-C1BC-47B1-B1AD-C329B90922CD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{480C7F92-68D3-4371-941D-20434996D469}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E3205E23-6C45-430C-B34E-0EF9B99C972B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{861149B2-AB48-478B-AF29-18B6C365351C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7CD8CD4F-F274-4D17-91F7-DC70C0881231}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A570CC4C-D942-4DC4-A0E2-99D199CFEF9D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43DCE48E-C701-4327-ACD1-6E4E01BD01BB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{159DF83A-3791-481D-A2C1-D1F87B0B4EDD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{91D9A354-26A3-4E8B-913D-86B9D5A5D984}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B0DBF707-AF1B-46EC-8AFD-2880A3448635}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15B3ABDF-4408-4764-9B0F-534326E7A107}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15851,7 +15851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0011EE59-3EE2-4434-BEE6-8201027CFF83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310EFD4C-915C-4522-8BC6-D19AD61F0CCA}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -17147,17 +17147,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11590103-C8E6-4111-A6A6-4DB8996B5905}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{69F8F75B-ACD1-4902-8641-5AEC88668F06}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2330A19-37CC-4624-AF1A-757F7228C0EF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92EF7560-C5F3-4450-BACF-18F5F6BA730E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{659856A2-5D14-4245-8BFA-B04F815B418A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{033E9674-A7F5-4FE3-A757-B365B0BD32BF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7CD8E80-B1BF-4686-A894-A2FAE972BFD0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B59160B6-B643-425E-814C-510D8B9D5C08}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{62C8C92F-889B-4E93-A87D-AC6EF08B89D2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9440A417-8986-43C7-B8CA-58B01014B682}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D721371E-DC89-445F-B79C-DADE0A2996BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DAE2ED9A-4E47-41C2-BDEA-B147618A74CA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5483EDE1-8C65-4CA9-9866-AE9F86185958}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1D01FA4E-22D4-482B-889E-4BAF029D80DD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4DEE74EE-2970-433A-9558-7DAEBCD98CA9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{29AD98BD-3037-405E-801B-94AAE1C1F985}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{411628E8-5C58-4AF4-A795-3152EBDC6C0E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E05F5AC7-EB26-4661-B4BF-3F4E9C68E5B1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DECF756B-3710-446D-9492-7E15DFBDDF1C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DEBA5FC2-256B-4C02-9962-77A7BE841D1C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DCB685A1-50B9-4802-973D-181B0CEDE09F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7F8905A-D78D-498E-9B6B-01076729C97B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
